--- a/tools/调试数据.xlsx
+++ b/tools/调试数据.xlsx
@@ -14,33 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="113">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>正文</t>
+  </si>
+  <si>
     <t>来源</t>
   </si>
   <si>
-    <t>年度</t>
-  </si>
-  <si>
-    <t>季度</t>
-  </si>
-  <si>
     <t>日期</t>
   </si>
   <si>
-    <t>标题</t>
-  </si>
-  <si>
-    <t>正文</t>
-  </si>
-  <si>
-    <t>中国人民银行条法司</t>
-  </si>
-  <si>
-    <t>2000Q2</t>
+    <t>监管强度</t>
   </si>
   <si>
     <t>中国人民银行关于印发《财务公司进入全国银行间同业拆借市场和债券市场管理规定》的通知</t>
@@ -89,10 +80,7 @@
 　　第十三条　本规定自发布之日起执行。</t>
   </si>
   <si>
-    <t>证监会</t>
-  </si>
-  <si>
-    <t>2000Q3</t>
+    <t>中国人民银行条法司</t>
   </si>
   <si>
     <t>关于调整证券公司净资本计算规则的通知①②</t>
@@ -123,7 +111,7 @@
 15、或有负债指未在资产负债表内反映的，将来可能成为公司负债的项目，包括为其他企业提供的担保、未决诉讼、赔偿责任等。考虑到或有负债本身的特点和风险状况，将其全部扣减。  </t>
   </si>
   <si>
-    <t>2000Q4</t>
+    <t>证监会</t>
   </si>
   <si>
     <t>第5号－－证券公司招股说明书内容与格式特别规定</t>
@@ -681,9 +669,6 @@
           </t>
   </si>
   <si>
-    <t>国务院官网</t>
-  </si>
-  <si>
     <t>金融资产管理公司条例（国务院令 第297号）</t>
   </si>
   <si>
@@ -755,6 +740,9 @@
             </t>
   </si>
   <si>
+    <t>国务院官网</t>
+  </si>
+  <si>
     <t>关于商业银行开办委托贷款业务有关问题的通知</t>
   </si>
   <si>
@@ -914,9 +902,6 @@
                                                 第九条   
                                                  本规定自发布之日起施行。
           </t>
-  </si>
-  <si>
-    <t>2001Q1</t>
   </si>
   <si>
     <t>证券公司高级管理人员谈话提醒制度实施办法①</t>
@@ -1331,9 +1316,6 @@
                                                 第五十四条   
                                                  本规则自公布之日起施行。1999年6月15日发布的《公开发行股票公司信息披露的内容与格式准则第六号—法律意见书的内容与格式（修订）》（证监法律字〔1999〕2号）同时废止。
                               </t>
-  </si>
-  <si>
-    <t>2001Q2</t>
   </si>
   <si>
     <t>中国人民银行关于规范和支持银行间债券市场双边报价业务有关问题的通知</t>
@@ -1887,9 +1869,6 @@
                          </t>
   </si>
   <si>
-    <t>2001Q3</t>
-  </si>
-  <si>
     <t>中国人民银行关于进一步规范股份制商业银行分支机构准入管理的通知</t>
   </si>
   <si>
@@ -1906,9 +1885,6 @@
              中国人民银行        
              二○○一年六月五日       
             </t>
-  </si>
-  <si>
-    <t>2001Q4</t>
   </si>
   <si>
     <t>关于规范面向公众开展的证券投资咨询业务行为若干问题的通知</t>
@@ -2621,9 +2597,6 @@
                                                 第四十五条   
                                                  本规定自发布之日起施行。
           </t>
-  </si>
-  <si>
-    <t>2002Q1</t>
   </si>
   <si>
     <t>证券公司年度报告内容与格式准则</t>
@@ -3204,9 +3177,6 @@
             </t>
   </si>
   <si>
-    <t>2002Q2</t>
-  </si>
-  <si>
     <t>中国人民银行关于落实《商业银行中间业务暂行规定》有关问题的通知</t>
   </si>
   <si>
@@ -3470,9 +3440,6 @@
           </t>
   </si>
   <si>
-    <t>2002Q3</t>
-  </si>
-  <si>
     <t>中国证券业协会会员公约</t>
   </si>
   <si>
@@ -3639,9 +3606,6 @@
                                                 第十六条   
                                                  本办法自发布之日起施行。
           </t>
-  </si>
-  <si>
-    <t>2002Q4</t>
   </si>
   <si>
     <t>公开发行证券的公司信息披露内容与格式准则第19号—豁免要约收购申请文件</t>
@@ -4245,9 +4209,6 @@
 第十五条   资产负债表日后事项中的非调整事项
 按《企业会计准则--资产负债表日后事项》的规定，应说明资产负债表日后（如股票和债券的发行、自营证券巨额亏损、对一个企业的巨额投资、自然灾害导致的资产损失、外汇汇率发生较大变动等）非调整事项的内容，估计对财务状况、经营成果的影响；如无法作出估计，应说明其原因。
 第十六条   其他重要事项。  </t>
-  </si>
-  <si>
-    <t>2003Q1</t>
   </si>
   <si>
     <t>最高人民法院关于审理与企业改制相关的民事纠纷案件若干问题的规定</t>
@@ -5566,9 +5527,6 @@
           </t>
   </si>
   <si>
-    <t>2003Q2</t>
-  </si>
-  <si>
     <t>人民币银行结算账户管理办法</t>
   </si>
   <si>
@@ -5826,9 +5784,6 @@
             </t>
   </si>
   <si>
-    <t>2003Q3</t>
-  </si>
-  <si>
     <t>中国人民银行关于统一同业拆借市场中证券公司信息披露规范的通知</t>
   </si>
   <si>
@@ -5859,11 +5814,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -5879,24 +5834,11 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5908,9 +5850,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5940,38 +5911,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5986,6 +5926,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -5993,8 +5941,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6008,16 +5964,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6044,7 +5999,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6056,7 +6053,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6074,7 +6077,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6086,49 +6161,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6140,85 +6173,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6229,15 +6184,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -6252,6 +6198,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6273,6 +6258,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -6288,47 +6284,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6337,10 +6292,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6349,133 +6304,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6817,20 +6772,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="55.625" customWidth="1"/>
+    <col min="6" max="6" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6846,1207 +6803,1048 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" s="3">
         <v>5273</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4">
         <v>36696</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
+      <c r="F2">
+        <v>0.541739604389017</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" s="3">
         <v>5166</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E3" s="4">
         <v>36792</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
+      <c r="F3">
+        <v>0.850840828338703</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4" s="3">
         <v>4850</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="E4" s="4">
         <v>36832</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
+      <c r="F4">
+        <v>0.542679243249353</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" s="3">
         <v>5161</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="E5" s="4">
         <v>36832</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
+      <c r="F5">
+        <v>0.700802544495353</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" s="3">
         <v>5162</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="E6" s="4">
         <v>36832</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
+      <c r="F6">
+        <v>0.52577047763506</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" s="3">
         <v>5163</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="E7" s="4">
         <v>36832</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>23</v>
+      <c r="F7">
+        <v>0.0203783897486887</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" s="3">
         <v>5164</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="E8" s="4">
         <v>36832</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>25</v>
+      <c r="F8">
+        <v>0.117930434144358</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" s="5">
         <v>5307</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E9" s="7">
         <v>36840</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>28</v>
+      <c r="F9">
+        <v>0.405207433601329</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10" s="5">
         <v>5393</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="7">
         <v>36861</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>30</v>
+      <c r="F10">
+        <v>0.43200266343797</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="A11" s="3">
         <v>5397</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E11" s="4">
         <v>36861</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>32</v>
+      <c r="F11">
+        <v>0.598748061531545</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:6">
       <c r="A12" s="3">
         <v>4848</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="E12" s="4">
         <v>36872</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>34</v>
+      <c r="F12">
+        <v>0.174726353185722</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6">
       <c r="A13" s="3">
         <v>5157</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="E13" s="4">
         <v>36881</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>36</v>
+      <c r="F13">
+        <v>0.602387690959567</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:6">
       <c r="A14" s="3">
         <v>5158</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="E14" s="4">
         <v>36881</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>38</v>
+      <c r="F14">
+        <v>0.758443084373802</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:6">
       <c r="A15" s="3">
         <v>5156</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2001</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E15" s="4">
         <v>36901</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>41</v>
+      <c r="F15">
+        <v>0.824132614994754</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:6">
       <c r="A16" s="3">
         <v>5155</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2001</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E16" s="4">
         <v>36922</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>43</v>
+      <c r="F16">
+        <v>0.0779208846910702</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:6">
       <c r="A17" s="3">
         <v>4846</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2001</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E17" s="4">
         <v>36951</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>45</v>
+      <c r="F17">
+        <v>0.49324667058736</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:6">
       <c r="A18" s="3">
         <v>5390</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2001</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="4">
         <v>36982</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>48</v>
+      <c r="F18">
+        <v>0.315360476445813</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:6">
       <c r="A19" s="3">
         <v>5391</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2001</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E19" s="4">
         <v>36982</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>50</v>
+      <c r="F19">
+        <v>0.0871749389785217</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:6">
       <c r="A20" s="3">
         <v>5150</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2001</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E20" s="4">
         <v>36987</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>52</v>
+      <c r="F20">
+        <v>0.530787504236422</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:6">
       <c r="A21" s="3">
         <v>5147</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2001</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E21" s="4">
         <v>37007</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>54</v>
+      <c r="F21">
+        <v>0.882341935719879</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:6">
       <c r="A22" s="3">
         <v>5387</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2001</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="4">
         <v>37012</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>56</v>
+      <c r="F22">
+        <v>0.583475582475404</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:6">
       <c r="A23" s="3">
         <v>4845</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2001</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E23" s="4">
         <v>37027</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>58</v>
+      <c r="F23">
+        <v>0.694054811343209</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:6">
       <c r="A24" s="3">
         <v>5385</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2001</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E24" s="4">
         <v>37073</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>61</v>
+      <c r="F24">
+        <v>0.832789067959018</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:6">
       <c r="A25" s="3">
         <v>4841</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2001</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E25" s="4">
         <v>37175</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>64</v>
+      <c r="F25">
+        <v>0.0546132645966997</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:6">
       <c r="A26" s="5">
         <v>5136</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="C26" s="5">
-        <v>2001</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="E26" s="7">
         <v>37223</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>66</v>
+      <c r="F26">
+        <v>0.971551375626309</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:6">
       <c r="A27" s="5">
         <v>5384</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="5">
-        <v>2001</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="7">
         <v>37226</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>68</v>
+      <c r="F27">
+        <v>0.462188396524978</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:6">
       <c r="A28" s="3">
         <v>5134</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2001</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E28" s="4">
         <v>37235</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>70</v>
+      <c r="F28">
+        <v>0.848705904021564</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:6">
       <c r="A29" s="3">
         <v>5131</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C29" s="3">
-        <v>2001</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E29" s="4">
         <v>37255</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>72</v>
+      <c r="F29">
+        <v>0.455987856466194</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:6">
       <c r="A30" s="3">
         <v>5127</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C30" s="3">
-        <v>2002</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="E30" s="4">
         <v>37291</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>75</v>
+      <c r="F30">
+        <v>0.707430236718587</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:6">
       <c r="A31" s="3">
         <v>5305</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2002</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E31" s="4">
         <v>37294</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>77</v>
+      <c r="F31">
+        <v>0.360052830786549</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:6">
       <c r="A32" s="3">
         <v>5377</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2002</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="4">
         <v>37368</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>80</v>
+      <c r="F32">
+        <v>0.506659171333352</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:6">
       <c r="A33" s="3">
         <v>5379</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="3">
-        <v>2002</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="4">
         <v>37368</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>82</v>
+      <c r="F33">
+        <v>0.967335956865264</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:6">
       <c r="A34" s="3">
         <v>5374</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="3">
-        <v>2002</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E34" s="4">
         <v>37372</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>84</v>
+      <c r="F34">
+        <v>0.545145137786625</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:6">
       <c r="A35" s="5">
         <v>5371</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="5">
-        <v>2002</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="7">
         <v>37400</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>86</v>
+      <c r="F35">
+        <v>0.669699485976056</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:6">
       <c r="A36" s="5">
         <v>5372</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="5">
-        <v>2002</v>
-      </c>
-      <c r="D36" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>78</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E36" s="7">
         <v>37400</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>88</v>
+      <c r="F36">
+        <v>0.744132358249952</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:6">
       <c r="A37" s="5">
         <v>5369</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="5">
-        <v>2002</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E37" s="7">
         <v>37404</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>90</v>
+      <c r="F37">
+        <v>0.824693037565885</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:6">
       <c r="A38" s="5">
         <v>5370</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="5">
-        <v>2002</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E38" s="7">
         <v>37404</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>92</v>
+      <c r="F38">
+        <v>0.90952373417332</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:6">
       <c r="A39" s="3">
         <v>5120</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C39" s="3">
-        <v>2002</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="E39" s="4">
         <v>37429</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>94</v>
+      <c r="F39">
+        <v>0.576606624633069</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:6">
       <c r="A40" s="3">
         <v>4839</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C40" s="3">
-        <v>2002</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="E40" s="4">
         <v>37440</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>97</v>
+      <c r="F40">
+        <v>0.301694953551731</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:6">
       <c r="A41" s="3">
         <v>4838</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C41" s="3">
-        <v>2002</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="E41" s="4">
         <v>37482</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>99</v>
+      <c r="F41">
+        <v>0.261160042525639</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:6">
       <c r="A42" s="3">
         <v>5111</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C42" s="3">
-        <v>2002</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="E42" s="4">
         <v>37588</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>102</v>
+      <c r="F42">
+        <v>0.151777526344645</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:6">
       <c r="A43" s="3">
         <v>5109</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C43" s="3">
-        <v>2002</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="E43" s="4">
         <v>37603</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>104</v>
+      <c r="F43">
+        <v>0.231613382677093</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:6">
       <c r="A44" s="3">
         <v>5108</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C44" s="3">
-        <v>2002</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="E44" s="4">
         <v>37617</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>106</v>
+      <c r="F44">
+        <v>0.706644380614779</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:6">
       <c r="A45" s="3">
         <v>4835</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C45" s="3">
-        <v>2003</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E45" s="4">
         <v>37624</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>109</v>
+      <c r="F45">
+        <v>0.41832929594672</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:6">
       <c r="A46" s="3">
         <v>5272</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="3">
-        <v>2003</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E46" s="4">
         <v>37636</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>111</v>
+      <c r="F46">
+        <v>0.846798042937642</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:6">
       <c r="A47" s="3">
         <v>5105</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C47" s="3">
-        <v>2003</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E47" s="4">
         <v>37699</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>113</v>
+      <c r="F47">
+        <v>0.907882304728343</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:6">
       <c r="A48" s="3">
         <v>5103</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C48" s="3">
-        <v>2003</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E48" s="4">
         <v>37704</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>115</v>
+      <c r="F48">
+        <v>0.775866503539882</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:6">
       <c r="A49" s="3">
         <v>5104</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C49" s="3">
-        <v>2003</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E49" s="4">
         <v>37704</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>117</v>
+      <c r="F49">
+        <v>0.5142281852088</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:6">
       <c r="A50" s="3">
         <v>5271</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="3">
-        <v>2003</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>118</v>
+        <v>105</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E50" s="4">
         <v>37721</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>120</v>
+      <c r="F50">
+        <v>0.328999105546919</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:6">
       <c r="A51" s="3">
         <v>5101</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C51" s="3">
-        <v>2003</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="E51" s="4">
         <v>37740</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>122</v>
+      <c r="F51">
+        <v>0.528581327622393</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:6">
       <c r="A52" s="3">
         <v>5367</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="3">
-        <v>2003</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E52" s="4">
         <v>37777</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>124</v>
+      <c r="F52">
+        <v>0.565180213210882</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:6">
       <c r="A53" s="3">
         <v>5366</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="3">
-        <v>2003</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>125</v>
+        <v>111</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E53" s="4">
         <v>37845</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>127</v>
+      <c r="F53">
+        <v>0.741809440656297</v>
       </c>
     </row>
   </sheetData>

--- a/tools/调试数据.xlsx
+++ b/tools/调试数据.xlsx
@@ -5814,10 +5814,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -5834,47 +5834,15 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5889,7 +5857,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5903,48 +5885,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5964,6 +5939,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -5971,8 +5970,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5993,43 +5993,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6041,25 +6023,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6077,13 +6041,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6095,25 +6065,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6125,13 +6107,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6143,7 +6155,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6155,25 +6167,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6184,6 +6184,48 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -6198,6 +6240,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6231,59 +6284,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6292,10 +6292,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6304,133 +6304,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6775,7 +6775,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G2" sqref="G2:G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6824,7 +6824,7 @@
         <v>36696</v>
       </c>
       <c r="F2">
-        <v>0.541739604389017</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6844,7 +6844,7 @@
         <v>36792</v>
       </c>
       <c r="F3">
-        <v>0.850840828338703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6864,7 +6864,7 @@
         <v>36832</v>
       </c>
       <c r="F4">
-        <v>0.542679243249353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6884,7 +6884,7 @@
         <v>36832</v>
       </c>
       <c r="F5">
-        <v>0.700802544495353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6904,7 +6904,7 @@
         <v>36832</v>
       </c>
       <c r="F6">
-        <v>0.52577047763506</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6924,7 +6924,7 @@
         <v>36832</v>
       </c>
       <c r="F7">
-        <v>0.0203783897486887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6944,7 +6944,7 @@
         <v>36832</v>
       </c>
       <c r="F8">
-        <v>0.117930434144358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6964,7 +6964,7 @@
         <v>36840</v>
       </c>
       <c r="F9">
-        <v>0.405207433601329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6984,7 +6984,7 @@
         <v>36861</v>
       </c>
       <c r="F10">
-        <v>0.43200266343797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7004,7 +7004,7 @@
         <v>36861</v>
       </c>
       <c r="F11">
-        <v>0.598748061531545</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7024,7 +7024,7 @@
         <v>36872</v>
       </c>
       <c r="F12">
-        <v>0.174726353185722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -7044,7 +7044,7 @@
         <v>36881</v>
       </c>
       <c r="F13">
-        <v>0.602387690959567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -7064,7 +7064,7 @@
         <v>36881</v>
       </c>
       <c r="F14">
-        <v>0.758443084373802</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -7084,7 +7084,7 @@
         <v>36901</v>
       </c>
       <c r="F15">
-        <v>0.824132614994754</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -7104,7 +7104,7 @@
         <v>36922</v>
       </c>
       <c r="F16">
-        <v>0.0779208846910702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7124,7 +7124,7 @@
         <v>36951</v>
       </c>
       <c r="F17">
-        <v>0.49324667058736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7144,7 +7144,7 @@
         <v>36982</v>
       </c>
       <c r="F18">
-        <v>0.315360476445813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7164,7 +7164,7 @@
         <v>36982</v>
       </c>
       <c r="F19">
-        <v>0.0871749389785217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7184,7 +7184,7 @@
         <v>36987</v>
       </c>
       <c r="F20">
-        <v>0.530787504236422</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7204,7 +7204,7 @@
         <v>37007</v>
       </c>
       <c r="F21">
-        <v>0.882341935719879</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7224,7 +7224,7 @@
         <v>37012</v>
       </c>
       <c r="F22">
-        <v>0.583475582475404</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7244,7 +7244,7 @@
         <v>37027</v>
       </c>
       <c r="F23">
-        <v>0.694054811343209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7264,7 +7264,7 @@
         <v>37073</v>
       </c>
       <c r="F24">
-        <v>0.832789067959018</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7284,7 +7284,7 @@
         <v>37175</v>
       </c>
       <c r="F25">
-        <v>0.0546132645966997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7304,7 +7304,7 @@
         <v>37223</v>
       </c>
       <c r="F26">
-        <v>0.971551375626309</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7324,7 +7324,7 @@
         <v>37226</v>
       </c>
       <c r="F27">
-        <v>0.462188396524978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7344,7 +7344,7 @@
         <v>37235</v>
       </c>
       <c r="F28">
-        <v>0.848705904021564</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7364,7 +7364,7 @@
         <v>37255</v>
       </c>
       <c r="F29">
-        <v>0.455987856466194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7384,7 +7384,7 @@
         <v>37291</v>
       </c>
       <c r="F30">
-        <v>0.707430236718587</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7404,7 +7404,7 @@
         <v>37294</v>
       </c>
       <c r="F31">
-        <v>0.360052830786549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7424,7 +7424,7 @@
         <v>37368</v>
       </c>
       <c r="F32">
-        <v>0.506659171333352</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7444,7 +7444,7 @@
         <v>37368</v>
       </c>
       <c r="F33">
-        <v>0.967335956865264</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7464,7 +7464,7 @@
         <v>37372</v>
       </c>
       <c r="F34">
-        <v>0.545145137786625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7484,7 +7484,7 @@
         <v>37400</v>
       </c>
       <c r="F35">
-        <v>0.669699485976056</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7504,7 +7504,7 @@
         <v>37400</v>
       </c>
       <c r="F36">
-        <v>0.744132358249952</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7524,7 +7524,7 @@
         <v>37404</v>
       </c>
       <c r="F37">
-        <v>0.824693037565885</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7544,7 +7544,7 @@
         <v>37404</v>
       </c>
       <c r="F38">
-        <v>0.90952373417332</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7564,7 +7564,7 @@
         <v>37429</v>
       </c>
       <c r="F39">
-        <v>0.576606624633069</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7584,7 +7584,7 @@
         <v>37440</v>
       </c>
       <c r="F40">
-        <v>0.301694953551731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7604,7 +7604,7 @@
         <v>37482</v>
       </c>
       <c r="F41">
-        <v>0.261160042525639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7624,7 +7624,7 @@
         <v>37588</v>
       </c>
       <c r="F42">
-        <v>0.151777526344645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7644,7 +7644,7 @@
         <v>37603</v>
       </c>
       <c r="F43">
-        <v>0.231613382677093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7664,7 +7664,7 @@
         <v>37617</v>
       </c>
       <c r="F44">
-        <v>0.706644380614779</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7684,7 +7684,7 @@
         <v>37624</v>
       </c>
       <c r="F45">
-        <v>0.41832929594672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7704,7 +7704,7 @@
         <v>37636</v>
       </c>
       <c r="F46">
-        <v>0.846798042937642</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7724,7 +7724,7 @@
         <v>37699</v>
       </c>
       <c r="F47">
-        <v>0.907882304728343</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7744,7 +7744,7 @@
         <v>37704</v>
       </c>
       <c r="F48">
-        <v>0.775866503539882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7764,7 +7764,7 @@
         <v>37704</v>
       </c>
       <c r="F49">
-        <v>0.5142281852088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7784,7 +7784,7 @@
         <v>37721</v>
       </c>
       <c r="F50">
-        <v>0.328999105546919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7804,7 +7804,7 @@
         <v>37740</v>
       </c>
       <c r="F51">
-        <v>0.528581327622393</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7824,7 +7824,7 @@
         <v>37777</v>
       </c>
       <c r="F52">
-        <v>0.565180213210882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7844,7 +7844,7 @@
         <v>37845</v>
       </c>
       <c r="F53">
-        <v>0.741809440656297</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
